--- a/target/test-classes/StateFarmTestData.xlsx
+++ b/target/test-classes/StateFarmTestData.xlsx
@@ -117,8 +117,7 @@
     <t>Expected Heading</t>
   </si>
   <si>
-    <t xml:space="preserve">Crea un precio económico, solo para ti.
-</t>
+    <t>Crea un precio económico, solo para ti.</t>
   </si>
   <si>
     <t>ContactTestData</t>
@@ -144,7 +143,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="d-m-yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -181,11 +180,6 @@
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="15"/>
-      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="5">
@@ -258,7 +252,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -313,12 +307,6 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -345,7 +333,6 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff6a8758"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1862,7 +1849,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1881,8 +1868,8 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" ht="34.35" customHeight="1">
-      <c r="A2" t="s" s="19">
+    <row r="2" ht="13" customHeight="1">
+      <c r="A2" t="s" s="12">
         <v>25</v>
       </c>
       <c r="B2" s="14"/>
@@ -1938,13 +1925,6 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-    </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1966,8 +1946,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1">
